--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebhuerta-henry/Downloads/psych-final-project/psychopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8383F8DA-3DDE-E44B-99B5-0DC7D3B62A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA7C0E5-ACE2-E940-A051-361DC719CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="500" windowWidth="10000" windowHeight="15820" xr2:uid="{04975A67-FB85-FD4F-8C47-B106D77E136B}"/>
+    <workbookView xWindow="13280" yWindow="500" windowWidth="15520" windowHeight="15820" xr2:uid="{04975A67-FB85-FD4F-8C47-B106D77E136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="93">
   <si>
     <t>banana</t>
   </si>
@@ -308,88 +308,13 @@
     <t>teapot_banana</t>
   </si>
   <si>
-    <t>duck</t>
-  </si>
-  <si>
-    <t>mug_duck</t>
-  </si>
-  <si>
-    <t>duck_purple</t>
-  </si>
-  <si>
-    <t>mug_purple</t>
-  </si>
-  <si>
-    <t>cap_duck</t>
-  </si>
-  <si>
-    <t>cap_purple</t>
-  </si>
-  <si>
-    <t>bird_duck</t>
-  </si>
-  <si>
-    <t>bird_purple</t>
-  </si>
-  <si>
-    <t>mitten_duck</t>
-  </si>
-  <si>
-    <t>mitten_purple</t>
-  </si>
-  <si>
-    <t>comb_duck</t>
-  </si>
-  <si>
-    <t>comb_purple</t>
-  </si>
-  <si>
-    <t>teapot_duck</t>
-  </si>
-  <si>
-    <t>teapot_purple</t>
-  </si>
-  <si>
-    <t>flower_duck</t>
-  </si>
-  <si>
-    <t>flower_purple</t>
-  </si>
-  <si>
-    <t>flower_tp</t>
-  </si>
-  <si>
-    <t>flower_brown</t>
-  </si>
-  <si>
-    <t>flower_avocado</t>
-  </si>
-  <si>
-    <t>flower_pink</t>
-  </si>
-  <si>
-    <t>flower_clover</t>
-  </si>
-  <si>
-    <t>flower_red</t>
-  </si>
-  <si>
-    <t>flower_strawberry</t>
-  </si>
-  <si>
-    <t>flower_dark_blue</t>
-  </si>
-  <si>
-    <t>flower_basketball</t>
-  </si>
-  <si>
-    <t>flower_green</t>
-  </si>
-  <si>
-    <t>flower_banana</t>
-  </si>
-  <si>
-    <t>flower_blue</t>
+    <t>natural_color</t>
+  </si>
+  <si>
+    <t>diag_object</t>
+  </si>
+  <si>
+    <t>non_diag_object</t>
   </si>
 </sst>
 </file>
@@ -754,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704B7210-DFD2-BF42-A3D9-A1BA05E82564}">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,9 +691,10 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -781,8 +707,17 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,8 +730,19 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A2, SEARCH("_", A2)-1)), LEFT(A2, SEARCH("_", A2)-1), A2)</f>
+        <v>banana</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(B2, SEARCH("_", B2)-1)</f>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -809,8 +755,19 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A3, SEARCH("_", A3)-1)), LEFT(A3, SEARCH("_", A3)-1), A3)</f>
+        <v>banana</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">LEFT(B3, SEARCH("_", B3)-1)</f>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,8 +780,19 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F67" si="1">IF(ISTEXT(LEFT(A4, SEARCH("_", A4)-1)), LEFT(A4, SEARCH("_", A4)-1), A4)</f>
+        <v>banana</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -837,8 +805,19 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,8 +830,19 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +855,19 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +880,19 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,8 +905,19 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,8 +930,19 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -921,8 +955,19 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,8 +980,19 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +1005,19 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -963,8 +1030,19 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A14, SEARCH("_", A14)-1)), LEFT(A14, SEARCH("_", A14)-1), A14)</f>
+        <v>basketball</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -977,8 +1055,19 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -991,8 +1080,19 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1005,8 +1105,19 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,8 +1130,19 @@
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1033,8 +1155,19 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1047,8 +1180,19 @@
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1061,8 +1205,19 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1230,19 @@
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1089,8 +1255,19 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,8 +1280,19 @@
       <c r="D24" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,8 +1305,19 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1131,8 +1330,19 @@
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1145,8 +1355,19 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1159,8 +1380,19 @@
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1173,8 +1405,19 @@
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1187,8 +1430,19 @@
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1201,8 +1455,19 @@
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1215,8 +1480,19 @@
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,8 +1505,19 @@
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1243,8 +1530,19 @@
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1257,8 +1555,19 @@
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1271,8 +1580,19 @@
       <c r="D36" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1285,8 +1605,19 @@
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1299,8 +1630,19 @@
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1313,8 +1655,19 @@
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1327,8 +1680,19 @@
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1341,8 +1705,19 @@
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
@@ -1355,8 +1730,19 @@
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -1369,8 +1755,19 @@
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -1383,8 +1780,19 @@
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -1397,8 +1805,19 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>30</v>
       </c>
@@ -1411,8 +1830,19 @@
       <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -1425,8 +1855,19 @@
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
@@ -1439,8 +1880,19 @@
       <c r="D48" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
@@ -1453,8 +1905,19 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,8 +1930,19 @@
       <c r="D50" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -1481,8 +1955,19 @@
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,8 +1980,19 @@
       <c r="D52" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -1509,8 +2005,19 @@
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>banana</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -1523,8 +2030,19 @@
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -1537,8 +2055,19 @@
       <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +2080,19 @@
       <c r="D56" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
@@ -1565,8 +2105,19 @@
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>basketball</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -1579,8 +2130,19 @@
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -1593,8 +2155,19 @@
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -1607,8 +2180,19 @@
       <c r="D60" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -1621,8 +2205,19 @@
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>30</v>
       </c>
@@ -1635,8 +2230,19 @@
       <c r="D62" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -1649,8 +2255,19 @@
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>30</v>
       </c>
@@ -1663,8 +2280,19 @@
       <c r="D64" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>31</v>
       </c>
@@ -1677,8 +2305,19 @@
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>clover</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -1691,8 +2330,19 @@
       <c r="D66" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>avocado</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
@@ -1705,8 +2355,19 @@
       <c r="D67" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>avocado</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="2">LEFT(B67, SEARCH("_", B67)-1)</f>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -1719,8 +2380,19 @@
       <c r="D68" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" ref="F68:F122" si="3">IF(ISTEXT(LEFT(A68, SEARCH("_", A68)-1)), LEFT(A68, SEARCH("_", A68)-1), A68)</f>
+        <v>avocado</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -1733,8 +2405,19 @@
       <c r="D69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -1747,8 +2430,19 @@
       <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>47</v>
       </c>
@@ -1761,8 +2455,19 @@
       <c r="D71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -1775,8 +2480,19 @@
       <c r="D72" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
@@ -1789,8 +2505,19 @@
       <c r="D73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -1803,8 +2530,19 @@
       <c r="D74" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>47</v>
       </c>
@@ -1817,8 +2555,19 @@
       <c r="D75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>46</v>
       </c>
@@ -1831,8 +2580,19 @@
       <c r="D76" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>47</v>
       </c>
@@ -1845,8 +2605,19 @@
       <c r="D77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,8 +2630,19 @@
       <c r="D78" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>47</v>
       </c>
@@ -1873,8 +2655,19 @@
       <c r="D79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>46</v>
       </c>
@@ -1887,8 +2680,19 @@
       <c r="D80" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>47</v>
       </c>
@@ -1901,8 +2705,19 @@
       <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>46</v>
       </c>
@@ -1915,8 +2730,19 @@
       <c r="D82" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>47</v>
       </c>
@@ -1929,8 +2755,19 @@
       <c r="D83" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>46</v>
       </c>
@@ -1943,8 +2780,19 @@
       <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
@@ -1957,8 +2805,19 @@
       <c r="D85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>avocado</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
@@ -1971,8 +2830,19 @@
       <c r="D86" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>clover</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
@@ -1985,8 +2855,19 @@
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>clover</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>30</v>
       </c>
@@ -1999,8 +2880,19 @@
       <c r="D88" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>clover</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -2013,8 +2905,19 @@
       <c r="D89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>clover</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>22</v>
       </c>
@@ -2027,8 +2930,19 @@
       <c r="D90" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>23</v>
       </c>
@@ -2041,8 +2955,19 @@
       <c r="D91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
@@ -2055,8 +2980,19 @@
       <c r="D92" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>23</v>
       </c>
@@ -2069,8 +3005,19 @@
       <c r="D93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
@@ -2083,8 +3030,19 @@
       <c r="D94" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>basketball</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>15</v>
       </c>
@@ -2097,8 +3055,19 @@
       <c r="D95" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>basketball</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
@@ -2111,8 +3080,19 @@
       <c r="D96" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>basketball</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -2125,8 +3105,19 @@
       <c r="D97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>basketball</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,8 +3130,19 @@
       <c r="D98" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>banana</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -2153,8 +3155,19 @@
       <c r="D99" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>banana</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,8 +3180,19 @@
       <c r="D100" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>banana</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -2181,8 +3205,19 @@
       <c r="D101" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>banana</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>67</v>
       </c>
@@ -2195,8 +3230,19 @@
       <c r="D102" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="2"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>66</v>
       </c>
@@ -2209,8 +3255,19 @@
       <c r="D103" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="2"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>67</v>
       </c>
@@ -2223,8 +3280,19 @@
       <c r="D104" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="2"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>66</v>
       </c>
@@ -2237,8 +3305,19 @@
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="2"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>67</v>
       </c>
@@ -2251,8 +3330,19 @@
       <c r="D106" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>66</v>
       </c>
@@ -2265,8 +3355,19 @@
       <c r="D107" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>67</v>
       </c>
@@ -2279,8 +3380,19 @@
       <c r="D108" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>66</v>
       </c>
@@ -2293,8 +3405,19 @@
       <c r="D109" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="2"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>67</v>
       </c>
@@ -2307,8 +3430,19 @@
       <c r="D110" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>66</v>
       </c>
@@ -2321,8 +3455,19 @@
       <c r="D111" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>67</v>
       </c>
@@ -2335,8 +3480,19 @@
       <c r="D112" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,8 +3505,19 @@
       <c r="D113" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="2"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>67</v>
       </c>
@@ -2363,8 +3530,19 @@
       <c r="D114" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>66</v>
       </c>
@@ -2377,8 +3555,19 @@
       <c r="D115" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>67</v>
       </c>
@@ -2391,8 +3580,19 @@
       <c r="D116" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>66</v>
       </c>
@@ -2405,8 +3605,19 @@
       <c r="D117" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="2"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>67</v>
       </c>
@@ -2419,8 +3630,19 @@
       <c r="D118" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>66</v>
       </c>
@@ -2433,8 +3655,19 @@
       <c r="D119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>67</v>
       </c>
@@ -2447,8 +3680,19 @@
       <c r="D120" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>66</v>
       </c>
@@ -2461,8 +3705,19 @@
       <c r="D121" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="2"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>67</v>
       </c>
@@ -2475,8 +3730,19 @@
       <c r="D122" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>tp</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>66</v>
       </c>
@@ -2489,8 +3755,19 @@
       <c r="D123" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A123, SEARCH("_", A123)-1)), LEFT(A123, SEARCH("_", A123)-1), A123)</f>
+        <v>tp</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,8 +3780,19 @@
       <c r="D124" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f t="shared" ref="F124:F187" si="4">IF(ISTEXT(LEFT(A124, SEARCH("_", A124)-1)), LEFT(A124, SEARCH("_", A124)-1), A124)</f>
+        <v>tp</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>66</v>
       </c>
@@ -2517,8 +3805,19 @@
       <c r="D125" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tp</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>46</v>
       </c>
@@ -2531,8 +3830,19 @@
       <c r="D126" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>avocado</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>47</v>
       </c>
@@ -2545,8 +3855,19 @@
       <c r="D127" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>avocado</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>46</v>
       </c>
@@ -2559,8 +3880,19 @@
       <c r="D128" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>avocado</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>47</v>
       </c>
@@ -2573,8 +3905,19 @@
       <c r="D129" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>avocado</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>30</v>
       </c>
@@ -2587,8 +3930,19 @@
       <c r="D130" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>clover</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="2"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>31</v>
       </c>
@@ -2601,8 +3955,19 @@
       <c r="D131" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>clover</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G194" si="5">LEFT(B131, SEARCH("_", B131)-1)</f>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>30</v>
       </c>
@@ -2615,8 +3980,19 @@
       <c r="D132" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>clover</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>31</v>
       </c>
@@ -2629,8 +4005,19 @@
       <c r="D133" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>clover</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>22</v>
       </c>
@@ -2643,8 +4030,19 @@
       <c r="D134" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A134, SEARCH("_", A134)-1)), LEFT(A134, SEARCH("_", A134)-1), A134)</f>
+        <v>strawberry</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>23</v>
       </c>
@@ -2657,8 +4055,19 @@
       <c r="D135" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>22</v>
       </c>
@@ -2671,8 +4080,19 @@
       <c r="D136" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>23</v>
       </c>
@@ -2685,8 +4105,19 @@
       <c r="D137" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>14</v>
       </c>
@@ -2699,8 +4130,19 @@
       <c r="D138" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>basketball</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>15</v>
       </c>
@@ -2713,8 +4155,19 @@
       <c r="D139" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>basketball</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -2727,8 +4180,19 @@
       <c r="D140" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>basketball</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -2741,8 +4205,19 @@
       <c r="D141" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>basketball</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -2755,8 +4230,19 @@
       <c r="D142" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>banana</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -2769,8 +4255,19 @@
       <c r="D143" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>banana</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -2783,8 +4280,19 @@
       <c r="D144" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>banana</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -2797,733 +4305,3616 @@
       <c r="D145" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>banana</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="5"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C146" s="1">
         <v>0</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A146, SEARCH("_", A146)-1)), LEFT(A146, SEARCH("_", A146)-1), A146)</f>
+        <v>banana</v>
+      </c>
+      <c r="G146" t="str">
+        <f>LEFT(B146, SEARCH("_", B146)-1)</f>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C147" s="1">
         <v>0</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A147, SEARCH("_", A147)-1)), LEFT(A147, SEARCH("_", A147)-1), A147)</f>
+        <v>banana</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" ref="G147:G210" si="6">LEFT(B147, SEARCH("_", B147)-1)</f>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1" t="str">
+        <f t="shared" ref="F148:F211" si="7">IF(ISTEXT(LEFT(A148, SEARCH("_", A148)-1)), LEFT(A148, SEARCH("_", A148)-1), A148)</f>
+        <v>banana</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C150" s="1">
         <v>0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C151" s="1">
         <v>0</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C154" s="1">
         <v>0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C155" s="1">
         <v>0</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>banana</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C158" s="1">
         <v>0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A158, SEARCH("_", A158)-1)), LEFT(A158, SEARCH("_", A158)-1), A158)</f>
+        <v>basketball</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C159" s="1">
         <v>0</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <f t="shared" ref="F159:F222" si="8">IF(ISTEXT(LEFT(A159, SEARCH("_", A159)-1)), LEFT(A159, SEARCH("_", A159)-1), A159)</f>
+        <v>basketball</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C170" s="1">
         <v>0</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="6"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="6"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>banana</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>banana</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>banana</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>banana</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>basketball</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>clover</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="6"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="6"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" ref="G211:G274" si="9">LEFT(B211, SEARCH("_", B211)-1)</f>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="9"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="9"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>avocado</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1" t="str">
+        <f t="shared" ref="F223:F277" si="10">IF(ISTEXT(LEFT(A223, SEARCH("_", A223)-1)), LEFT(A223, SEARCH("_", A223)-1), A223)</f>
+        <v>avocado</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>avocado</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>avocado</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" t="b">
+        <v>1</v>
+      </c>
+      <c r="F226" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>avocado</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>avocado</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" t="b">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>avocado</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>avocado</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>clover</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>clover</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>clover</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>clover</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
+      </c>
+      <c r="F234" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" t="b">
+        <v>1</v>
+      </c>
+      <c r="F236" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
+      </c>
+      <c r="F238" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>basketball</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>basketball</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>basketball</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>basketball</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" t="b">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>banana</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>banana</v>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>banana</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>banana</v>
+      </c>
+      <c r="G245" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="B246" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
+      </c>
+      <c r="F246" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="9"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="B247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
+      <c r="F247" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="9"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C176" s="2">
-        <v>1</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="B248" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G248" t="str">
+        <f t="shared" si="9"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C177" s="2">
-        <v>1</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+      <c r="B249" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+      <c r="F249" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="9"/>
+        <v>mug</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" t="b">
+        <v>1</v>
+      </c>
+      <c r="F250" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G250" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+      <c r="F251" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G251" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G252" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G253" t="str">
+        <f t="shared" si="9"/>
+        <v>cap</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+      <c r="F254" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G254" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G255" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
+      </c>
+      <c r="F256" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G256" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" t="b">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G257" t="str">
+        <f t="shared" si="9"/>
+        <v>bird</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C258" s="1">
+        <v>0</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
+      </c>
+      <c r="F258" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G258" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C259" s="1">
+        <v>0</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G259" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" t="b">
+        <v>1</v>
+      </c>
+      <c r="F260" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G260" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" t="b">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G261" t="str">
+        <f t="shared" si="9"/>
+        <v>mitten</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C262" s="1">
+        <v>0</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" t="b">
+        <v>1</v>
+      </c>
+      <c r="F262" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G262" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C263" s="1">
+        <v>0</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G263" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
+      </c>
+      <c r="F264" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G264" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G265" t="str">
+        <f t="shared" si="9"/>
+        <v>comb</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C266" s="1">
+        <v>0</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
+      </c>
+      <c r="F266" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>tp</v>
+      </c>
+      <c r="G266" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A267, SEARCH("_", A267)-1)), LEFT(A267, SEARCH("_", A267)-1), A267)</f>
+        <v>tp</v>
+      </c>
+      <c r="G267" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" t="b">
+        <v>1</v>
+      </c>
+      <c r="F268" s="1" t="str">
+        <f t="shared" ref="F268:F289" si="11">IF(ISTEXT(LEFT(A268, SEARCH("_", A268)-1)), LEFT(A268, SEARCH("_", A268)-1), A268)</f>
+        <v>tp</v>
+      </c>
+      <c r="G268" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C269" s="1">
+        <v>1</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
+      <c r="F269" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tp</v>
+      </c>
+      <c r="G269" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
+      <c r="B270" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
+      </c>
+      <c r="F270" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>avocado</v>
+      </c>
+      <c r="G270" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
+      <c r="B271" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>avocado</v>
+      </c>
+      <c r="G271" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C180" s="2">
-        <v>1</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+      <c r="B272" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" t="b">
+        <v>1</v>
+      </c>
+      <c r="F272" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>avocado</v>
+      </c>
+      <c r="G272" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C181" s="2">
-        <v>1</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+      <c r="B273" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>avocado</v>
+      </c>
+      <c r="G273" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+      <c r="B274" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C274" s="1">
+        <v>0</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="b">
+        <v>1</v>
+      </c>
+      <c r="F274" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>clover</v>
+      </c>
+      <c r="G274" t="str">
+        <f t="shared" si="9"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+      <c r="B275" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" t="b">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>clover</v>
+      </c>
+      <c r="G275" t="str">
+        <f t="shared" ref="G275:G289" si="12">LEFT(B275, SEARCH("_", B275)-1)</f>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C184" s="2">
-        <v>1</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+      <c r="B276" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" t="b">
+        <v>1</v>
+      </c>
+      <c r="F276" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>clover</v>
+      </c>
+      <c r="G276" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C185" s="2">
-        <v>1</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+      <c r="B277" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" t="b">
+        <v>0</v>
+      </c>
+      <c r="F277" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>clover</v>
+      </c>
+      <c r="G277" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+      <c r="B278" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" t="b">
+        <v>1</v>
+      </c>
+      <c r="F278" s="1" t="str">
+        <f>IF(ISTEXT(LEFT(A278, SEARCH("_", A278)-1)), LEFT(A278, SEARCH("_", A278)-1), A278)</f>
+        <v>strawberry</v>
+      </c>
+      <c r="G278" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C187" s="2">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+      <c r="B279" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" s="1" t="str">
+        <f t="shared" ref="F279:F289" si="13">IF(ISTEXT(LEFT(A279, SEARCH("_", A279)-1)), LEFT(A279, SEARCH("_", A279)-1), A279)</f>
+        <v>strawberry</v>
+      </c>
+      <c r="G279" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C188" s="2">
-        <v>1</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+      <c r="B280" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" t="b">
+        <v>1</v>
+      </c>
+      <c r="F280" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G280" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C189" s="2">
-        <v>1</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+      <c r="B281" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" t="b">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>strawberry</v>
+      </c>
+      <c r="G281" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+      <c r="B282" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C282" s="1">
+        <v>0</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" t="b">
+        <v>1</v>
+      </c>
+      <c r="F282" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>basketball</v>
+      </c>
+      <c r="G282" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+      <c r="B283" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" t="b">
+        <v>0</v>
+      </c>
+      <c r="F283" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>basketball</v>
+      </c>
+      <c r="G283" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C192" s="2">
-        <v>1</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+      <c r="B284" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" t="b">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>basketball</v>
+      </c>
+      <c r="G284" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C193" s="2">
-        <v>1</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C194" s="2">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+      <c r="B285" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" t="b">
+        <v>0</v>
+      </c>
+      <c r="F285" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>basketball</v>
+      </c>
+      <c r="G285" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C286" s="1">
+        <v>0</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" t="b">
+        <v>1</v>
+      </c>
+      <c r="F286" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>banana</v>
+      </c>
+      <c r="G286" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C196" s="2">
-        <v>1</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
+      <c r="B287" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
+      <c r="F287" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>banana</v>
+      </c>
+      <c r="G287" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" t="b">
+        <v>1</v>
+      </c>
+      <c r="F288" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>banana</v>
+      </c>
+      <c r="G288" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C197" s="2">
-        <v>1</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>8</v>
+      <c r="B289" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" t="b">
+        <v>0</v>
+      </c>
+      <c r="F289" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>banana</v>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" si="12"/>
+        <v>teapot</v>
       </c>
     </row>
   </sheetData>
